--- a/biology/Zoologie/Anetia_cubana/Anetia_cubana.xlsx
+++ b/biology/Zoologie/Anetia_cubana/Anetia_cubana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anetia cubana est un insecte lépidoptère  de la famille des Nymphalidae, de la sous-famille des Danainae et du genre  Anetia.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anetia cubana a été décrit par Salvin en 1869 sous le nom initial de Clothilda cubana[1].
-Noms vernaculaires
-Anetia cubana se nomme Salvin's Anetia ou Cuban King en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anetia cubana a été décrit par Salvin en 1869 sous le nom initial de Clothilda cubana.
 </t>
         </is>
       </c>
@@ -541,10 +553,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anetia cubana se nomme Salvin's Anetia ou Cuban King en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anetia_cubana</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anetia_cubana</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Anetia cubana est un grand papillon aux ailes antérieures à bord costal bossu, apex arrondi et en crochet, bord externe très concave.
 Les ailes sont de couleur marron très foncé à noir avec les ailes antérieures ornées de taches blanches disposées en une bande des 2/3 du bord costal à l'angle interne et les ailes postérieures d'une large bande submarginale jaune.
@@ -553,36 +604,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Anetia_cubana</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Anetia_cubana</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -607,12 +628,11 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anetia cubana est présent à Cuba[1].
-Biotope
-Protection
-Noté NT sur le Red Data Book[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anetia cubana est présent à Cuba.
 </t>
         </is>
       </c>
@@ -638,10 +658,49 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Noté NT sur le Red Data Book.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anetia_cubana</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anetia_cubana</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce papillon figure sur une émission de Cuba de 1965 (valeur faciale : 13 c.).
 Sur les autres projets Wikimedia :
